--- a/medicine/Psychotrope/Maccabi_(bière)/Maccabi_(bière).xlsx
+++ b/medicine/Psychotrope/Maccabi_(bière)/Maccabi_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maccabi_(bi%C3%A8re)</t>
+          <t>Maccabi_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maccabi (בירה מכבי) est une bière israélienne brassée en Israël depuis 1968. Elle est fabriquée par Tempo Beer Industries Ltd. Son nom évoque les Maccabées comme de nombreuses organisations ou clubs sportifs israéliens.
 C'est une pils qui contient 4,9 % d'alcool.
